--- a/public/template/template_product_master_bulk.xlsx
+++ b/public/template/template_product_master_bulk.xlsx
@@ -24,27 +24,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>kode</t>
   </si>
   <si>
-    <t>keterangan</t>
-  </si>
-  <si>
     <t>satuan</t>
   </si>
   <si>
     <t>Meter</t>
   </si>
   <si>
-    <t>Ini adalah keterangan</t>
-  </si>
-  <si>
     <t>K00001</t>
   </si>
   <si>
     <t>kode_kategori</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>manufacture</t>
+  </si>
+  <si>
+    <t>XLT5H</t>
+  </si>
+  <si>
+    <t>HU7P4D1QQX</t>
+  </si>
+  <si>
+    <t>nama_item</t>
+  </si>
+  <si>
+    <t>Nama Item</t>
   </si>
 </sst>
 </file>
@@ -363,44 +375,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
